--- a/ConV Filter.xlsx
+++ b/ConV Filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/jehendricks_uiowa_edu/Documents/Documents/Teaching/Deep Learning Summer 2021/Lecture Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ap12798\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{55F27FC5-BB8E-425D-97A9-75AA3AEB37F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC86AFF-3360-4446-B295-11197B28165F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B551C97-982D-4EC3-9076-2C26448B5DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6E5E67E6-E547-496E-B935-C4F79D69B952}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6E5E67E6-E547-496E-B935-C4F79D69B952}"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Kernel Weights</t>
   </si>
@@ -110,6 +109,21 @@
   </si>
   <si>
     <t>** One cell in Activation map for every filter position</t>
+  </si>
+  <si>
+    <t>size of the filter either height or width</t>
+  </si>
+  <si>
+    <t>size if image either height or width</t>
+  </si>
+  <si>
+    <t>stride length</t>
+  </si>
+  <si>
+    <t>amount of padding</t>
+  </si>
+  <si>
+    <t>dimension of the activation map</t>
   </si>
 </sst>
 </file>
@@ -512,16 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -529,22 +534,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,9 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -602,9 +592,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -644,6 +631,33 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,88 +979,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0919EC-0E37-47F6-80E2-CD4CF27CBD6E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="E1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>0.01</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>0.09</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>0.22</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>0.53</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>0.34</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>-1.36</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>0.34</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>-1.59</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>0.37</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>0.82</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>-0.69</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>1.02</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>0.62</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>0.91</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>0.34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1054,31 +1068,31 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="106"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A2*E2+B2*F2+C2*G2+A3*E3+B3*F3+C3*G3+A4*E4+B4*F4+C4*G4</f>
         <v>-0.39169999999999988</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>B6</f>
         <v>0.2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>A8+A9</f>
         <v>-0.19169999999999987</v>
@@ -1099,71 +1113,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2CF0C-E73B-4132-AC22-4D4722902DE2}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>((B5-B6+2*B8)/B7)+1</f>
         <v>28</v>
       </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1172,349 +1202,349 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="1" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="75" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="M1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62">
-        <v>0</v>
-      </c>
-      <c r="C2" s="63">
-        <v>0</v>
-      </c>
-      <c r="D2" s="57">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0</v>
-      </c>
-      <c r="G2" s="61">
-        <v>0</v>
-      </c>
-      <c r="H2" s="62">
-        <v>0</v>
-      </c>
-      <c r="I2" s="63">
-        <v>0</v>
-      </c>
-      <c r="J2" s="57">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20">
-        <v>0</v>
-      </c>
-      <c r="M2" s="61">
-        <v>0</v>
-      </c>
-      <c r="N2" s="62">
-        <v>0</v>
-      </c>
-      <c r="O2" s="63">
-        <v>0</v>
-      </c>
-      <c r="P2" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="53">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55">
+        <v>0</v>
+      </c>
+      <c r="D2" s="49">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0</v>
+      </c>
+      <c r="H2" s="54">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0</v>
+      </c>
+      <c r="J2" s="49">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="53">
+        <v>0</v>
+      </c>
+      <c r="N2" s="54">
+        <v>0</v>
+      </c>
+      <c r="O2" s="55">
+        <v>0</v>
+      </c>
+      <c r="P2" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="56">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>0.2</v>
       </c>
-      <c r="C3" s="65">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="58">
+      <c r="C3" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="50">
         <v>0.3</v>
       </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="64">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="71">
-        <v>0.6</v>
-      </c>
-      <c r="J3" s="69">
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="56">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="63">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="61">
         <v>0.9</v>
       </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="64">
-        <v>0</v>
-      </c>
-      <c r="N3" s="23">
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
         <v>0.8</v>
       </c>
-      <c r="O3" s="77">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="74">
+      <c r="O3" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="66">
         <v>0.9</v>
       </c>
-      <c r="Q3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67">
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="58">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59">
         <v>0.3</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="60">
         <v>0.9</v>
       </c>
-      <c r="D4" s="58">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0</v>
-      </c>
-      <c r="G4" s="66">
-        <v>0</v>
-      </c>
-      <c r="H4" s="72">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="73">
+      <c r="D4" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0</v>
+      </c>
+      <c r="H4" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="65">
         <v>0.7</v>
       </c>
-      <c r="J4" s="69">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="66">
-        <v>0</v>
-      </c>
-      <c r="N4" s="78">
+      <c r="J4" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="58">
+        <v>0</v>
+      </c>
+      <c r="N4" s="69">
         <v>0.3</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="70">
         <v>0.1</v>
       </c>
-      <c r="P4" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
-        <v>0</v>
-      </c>
-      <c r="B5" s="60">
+      <c r="P4" s="66">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
+        <v>0</v>
+      </c>
+      <c r="B5" s="52">
         <v>0.9</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="52">
         <v>0.1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="14">
         <v>0.2</v>
       </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="59">
-        <v>0</v>
-      </c>
-      <c r="H5" s="70">
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="62">
         <v>0.7</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="62">
         <v>0.5</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="15">
         <v>0.3</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
-        <v>0</v>
-      </c>
-      <c r="N5" s="76">
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0</v>
+      </c>
+      <c r="N5" s="67">
         <v>0.8</v>
       </c>
-      <c r="O5" s="76">
-        <v>0.6</v>
-      </c>
-      <c r="P5" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>0</v>
-      </c>
-      <c r="B6" s="20">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="O5" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
         <v>0.1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <v>0.2</v>
       </c>
-      <c r="D10" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="D10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="27">
         <v>0.9</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="33">
         <v>0.8</v>
       </c>
-      <c r="O10" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="P10" s="42">
+      <c r="O10" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="35">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="16">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.8</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="21">
         <v>0.7</v>
       </c>
-      <c r="H11" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="6">
         <v>0.7</v>
       </c>
-      <c r="J11" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="N11" s="43">
+      <c r="J11" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="36">
         <v>0.3</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="12">
         <v>0.1</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="37">
         <v>0.6</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1524,196 +1554,196 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22">
         <v>0.5</v>
       </c>
-      <c r="C12" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="C12" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="24">
         <v>0.3</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <v>0.7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="31">
         <v>0.5</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="32">
         <v>0.3</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="38">
         <v>0.8</v>
       </c>
-      <c r="O12" s="46">
-        <v>0.6</v>
-      </c>
-      <c r="P12" s="47">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="O12" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="R16" s="56" t="s">
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="R16" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
-        <f>B10*A2</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="25">
-        <f>C10*B2</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="26">
-        <f>D10*C2</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="32">
-        <f>H10*G2</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="33">
-        <f>I10*H2</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="34">
-        <f>J10*I2</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="40">
-        <f>N10*M2</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="41">
-        <f>O10*N2</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="42">
-        <f>P10*O2</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="48">
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="17">
+        <f t="shared" ref="B17:D19" si="0">B10*A2</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" ref="H17:J19" si="1">H10*G2</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <f t="shared" ref="N17:P19" si="2">N10*M2</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="41">
         <f>$B17+$C17+$D17+$B18+$C18+$D18+$B19+$C19+$D19+$H17+$I17+$J17+$H18+$I18+$J18+$H19+$I19+$J19+$N17+$O17+$P17+$N18+$O18+$P18+$N19+$O19+$P19+$R11</f>
         <v>2.64</v>
       </c>
-      <c r="S17" s="49"/>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
-        <f>B11*A3</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <f>C11*B3</f>
+      <c r="S17" s="42"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="D18" s="26">
-        <f>D11*C3</f>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
         <v>0.27999999999999997</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="35">
-        <f>H11*G3</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <f>I11*H3</f>
+      <c r="H18" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
-      <c r="J18" s="36">
-        <f>J11*I3</f>
+      <c r="J18" s="29">
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="43">
-        <f>N11*M3</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="18">
-        <f>O11*N3</f>
+      <c r="N18" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="2"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="P18" s="44">
-        <f>P11*O3</f>
+      <c r="P18" s="37">
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="52"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
-        <f>B12*A4</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <f>C12*B4</f>
+      <c r="R18" s="44"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="D19" s="26">
-        <f>D12*C4</f>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="H19" s="37">
-        <f>H12*G4</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
-        <f>I12*H4</f>
+      <c r="H19" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="39">
-        <f>J12*I4</f>
+      <c r="J19" s="32">
+        <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
-      <c r="N19" s="45">
-        <f>N12*M4</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="46">
-        <f>O12*N4</f>
+      <c r="N19" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="39">
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="P19" s="47">
-        <f>P12*O4</f>
+      <c r="P19" s="40">
+        <f t="shared" si="2"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="55"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R19" s="46"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="P21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1728,6 +1758,7 @@
     <mergeCell ref="A16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1736,348 +1767,348 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="75" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="M1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
-        <v>0</v>
-      </c>
-      <c r="B2" s="61">
-        <v>0</v>
-      </c>
-      <c r="C2" s="62">
-        <v>0</v>
-      </c>
-      <c r="D2" s="63">
-        <v>0</v>
-      </c>
-      <c r="E2" s="57">
-        <v>0</v>
-      </c>
-      <c r="G2" s="81">
-        <v>0</v>
-      </c>
-      <c r="H2" s="61">
-        <v>0</v>
-      </c>
-      <c r="I2" s="62">
-        <v>0</v>
-      </c>
-      <c r="J2" s="63">
-        <v>0</v>
-      </c>
-      <c r="K2" s="57">
-        <v>0</v>
-      </c>
-      <c r="M2" s="81">
-        <v>0</v>
-      </c>
-      <c r="N2" s="61">
-        <v>0</v>
-      </c>
-      <c r="O2" s="62">
-        <v>0</v>
-      </c>
-      <c r="P2" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
-        <v>0</v>
-      </c>
-      <c r="B3" s="82">
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="55">
+        <v>0</v>
+      </c>
+      <c r="E2" s="49">
+        <v>0</v>
+      </c>
+      <c r="G2" s="72">
+        <v>0</v>
+      </c>
+      <c r="H2" s="53">
+        <v>0</v>
+      </c>
+      <c r="I2" s="54">
+        <v>0</v>
+      </c>
+      <c r="J2" s="55">
+        <v>0</v>
+      </c>
+      <c r="K2" s="49">
+        <v>0</v>
+      </c>
+      <c r="M2" s="72">
+        <v>0</v>
+      </c>
+      <c r="N2" s="53">
+        <v>0</v>
+      </c>
+      <c r="O2" s="54">
+        <v>0</v>
+      </c>
+      <c r="P2" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="72">
+        <v>0</v>
+      </c>
+      <c r="B3" s="73">
         <v>0.2</v>
       </c>
-      <c r="C3" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="65">
+      <c r="C3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="57">
         <v>0.3</v>
       </c>
-      <c r="E3" s="57">
-        <v>0</v>
-      </c>
-      <c r="G3" s="81">
-        <v>0</v>
-      </c>
-      <c r="H3" s="84">
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="J3" s="71">
+      <c r="E3" s="49">
+        <v>0</v>
+      </c>
+      <c r="G3" s="72">
+        <v>0</v>
+      </c>
+      <c r="H3" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="63">
         <v>0.9</v>
       </c>
-      <c r="K3" s="57">
-        <v>0</v>
-      </c>
-      <c r="M3" s="81">
-        <v>0</v>
-      </c>
-      <c r="N3" s="87">
+      <c r="K3" s="49">
+        <v>0</v>
+      </c>
+      <c r="M3" s="72">
+        <v>0</v>
+      </c>
+      <c r="N3" s="78">
         <v>0.8</v>
       </c>
-      <c r="O3" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="88">
+      <c r="O3" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="79">
         <v>0.9</v>
       </c>
-      <c r="Q3" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83">
+      <c r="Q3" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="72">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74">
         <v>0.3</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="59">
         <v>0.9</v>
       </c>
-      <c r="D4" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="57">
-        <v>0</v>
-      </c>
-      <c r="G4" s="81">
-        <v>0</v>
-      </c>
-      <c r="H4" s="85">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="72">
+      <c r="D4" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="G4" s="72">
+        <v>0</v>
+      </c>
+      <c r="H4" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="64">
         <v>0.7</v>
       </c>
-      <c r="J4" s="73">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="57">
-        <v>0</v>
-      </c>
-      <c r="M4" s="81">
-        <v>0</v>
-      </c>
-      <c r="N4" s="89">
+      <c r="J4" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="49">
+        <v>0</v>
+      </c>
+      <c r="M4" s="72">
+        <v>0</v>
+      </c>
+      <c r="N4" s="80">
         <v>0.3</v>
       </c>
-      <c r="O4" s="78">
+      <c r="O4" s="69">
         <v>0.1</v>
       </c>
-      <c r="P4" s="90">
-        <v>0.6</v>
-      </c>
-      <c r="Q4" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>0</v>
-      </c>
-      <c r="B5" s="60">
+      <c r="P4" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="52">
         <v>0.9</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="52">
         <v>0.1</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="52">
         <v>0.2</v>
       </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="70">
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="62">
         <v>0.7</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="62">
         <v>0.5</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="62">
         <v>0.3</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
-        <v>0</v>
-      </c>
-      <c r="N5" s="76">
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0</v>
+      </c>
+      <c r="N5" s="67">
         <v>0.8</v>
       </c>
-      <c r="O5" s="76">
-        <v>0.6</v>
-      </c>
-      <c r="P5" s="76">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>0</v>
-      </c>
-      <c r="B6" s="20">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="O5" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
         <v>0.1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <v>0.2</v>
       </c>
-      <c r="D10" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="D10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="27">
         <v>0.9</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="33">
         <v>0.8</v>
       </c>
-      <c r="O10" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="P10" s="42">
+      <c r="O10" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="35">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="16">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.8</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="21">
         <v>0.7</v>
       </c>
-      <c r="H11" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="6">
         <v>0.7</v>
       </c>
-      <c r="J11" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="N11" s="43">
+      <c r="J11" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="36">
         <v>0.3</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="12">
         <v>0.1</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="37">
         <v>0.6</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -2087,207 +2118,208 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22">
         <v>0.5</v>
       </c>
-      <c r="C12" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="C12" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="24">
         <v>0.3</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <v>0.7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="31">
         <v>0.5</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="32">
         <v>0.3</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="38">
         <v>0.8</v>
       </c>
-      <c r="O12" s="46">
-        <v>0.6</v>
-      </c>
-      <c r="P12" s="47">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="O12" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="R16" s="56" t="s">
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="R16" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="17">
         <f>B10*B2</f>
         <v>0</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="18">
         <f>C10*C2</f>
         <v>0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="19">
         <f>D10*D2</f>
         <v>0</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="25">
         <f>H10*H2</f>
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="26">
         <f>I10*I2</f>
         <v>0</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="27">
         <f>J10*J2</f>
         <v>0</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="33">
         <f>N10*N2</f>
         <v>0</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="34">
         <f>O10*O2</f>
         <v>0</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="35">
         <f>P10*P2</f>
         <v>0</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="41">
         <v>2.64</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="42">
         <f>$B$17+$C$17+$D$17+$B$18+$C$18+$D$18+$B$19+$C$19+$D$19+$H$17+$I$17+$J$17+$H$18+$I$18+$J$18+$H$19+$I$19+$J$19+$N$17+$O$17+$P$17+$N$18+$O$18+$P$18+$N$19+$O$19+$P$19+$R$11</f>
         <v>4.67</v>
       </c>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17">
         <f t="shared" ref="B18:D18" si="0">B11*B3</f>
         <v>0.12</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="18">
         <f t="shared" si="0"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="19">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="28">
         <f t="shared" ref="H18:J18" si="1">H11*H3</f>
         <v>0.24</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="29">
         <f t="shared" si="1"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="36">
         <f t="shared" ref="N18:P18" si="2">N11*N3</f>
         <v>0.24</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="12">
         <f t="shared" si="2"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="37">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="52"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="R18" s="44"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17">
         <f t="shared" ref="B19:D19" si="3">B12*B4</f>
         <v>0.15</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="18">
         <f t="shared" si="3"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="19">
         <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="30">
         <f t="shared" ref="H19:J19" si="4">H12*H4</f>
         <v>0.27999999999999997</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="31">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="32">
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="38">
         <f t="shared" ref="N19:P19" si="5">N12*N4</f>
         <v>0.24</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="39">
         <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="40">
         <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="55"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R16:T16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A9:P9"/>
     <mergeCell ref="A16:P16"/>
-    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2295,349 +2327,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71FF144-3E30-47BD-9D8D-DD0F31B3234B}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="G1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="75" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="M1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
-      </c>
-      <c r="D2" s="20">
-        <v>0</v>
-      </c>
-      <c r="E2" s="57">
-        <v>0</v>
-      </c>
-      <c r="G2" s="81">
-        <v>0</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20">
-        <v>0</v>
-      </c>
-      <c r="K2" s="57">
-        <v>0</v>
-      </c>
-      <c r="M2" s="81">
-        <v>0</v>
-      </c>
-      <c r="N2" s="20">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20">
-        <v>0</v>
-      </c>
-      <c r="P2" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="49">
+        <v>0</v>
+      </c>
+      <c r="G2" s="72">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="49">
+        <v>0</v>
+      </c>
+      <c r="M2" s="72">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="72">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>0.2</v>
       </c>
-      <c r="C3" s="93">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="93">
+      <c r="C3" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="84">
         <v>0.3</v>
       </c>
-      <c r="E3" s="94">
-        <v>0</v>
-      </c>
-      <c r="G3" s="81">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="I3" s="103">
-        <v>0.6</v>
-      </c>
-      <c r="J3" s="103">
+      <c r="E3" s="85">
+        <v>0</v>
+      </c>
+      <c r="G3" s="72">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="94">
         <v>0.9</v>
       </c>
-      <c r="K3" s="94">
-        <v>0</v>
-      </c>
-      <c r="M3" s="81">
-        <v>0</v>
-      </c>
-      <c r="N3" s="23">
+      <c r="K3" s="85">
+        <v>0</v>
+      </c>
+      <c r="M3" s="72">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
         <v>0.8</v>
       </c>
-      <c r="O3" s="109">
-        <v>0.4</v>
-      </c>
-      <c r="P3" s="109">
+      <c r="O3" s="100">
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="100">
         <v>0.9</v>
       </c>
-      <c r="Q3" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="81">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91">
+      <c r="Q3" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="72">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82">
         <v>0.3</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="86">
         <v>0.9</v>
       </c>
-      <c r="D4" s="96">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="86">
-        <v>0</v>
-      </c>
-      <c r="G4" s="81">
-        <v>0</v>
-      </c>
-      <c r="H4" s="101">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="104">
+      <c r="D4" s="87">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="77">
+        <v>0</v>
+      </c>
+      <c r="G4" s="72">
+        <v>0</v>
+      </c>
+      <c r="H4" s="92">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="95">
         <v>0.7</v>
       </c>
-      <c r="J4" s="105">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="86">
-        <v>0</v>
-      </c>
-      <c r="M4" s="81">
-        <v>0</v>
-      </c>
-      <c r="N4" s="107">
+      <c r="J4" s="96">
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="77">
+        <v>0</v>
+      </c>
+      <c r="M4" s="72">
+        <v>0</v>
+      </c>
+      <c r="N4" s="98">
         <v>0.3</v>
       </c>
-      <c r="O4" s="110">
+      <c r="O4" s="101">
         <v>0.1</v>
       </c>
-      <c r="P4" s="111">
-        <v>0.6</v>
-      </c>
-      <c r="Q4" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>0</v>
-      </c>
-      <c r="B5" s="92">
+      <c r="P4" s="102">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="83">
         <v>0.9</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="88">
         <v>0.1</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="52">
         <v>0.2</v>
       </c>
-      <c r="E5" s="98">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="102">
+      <c r="E5" s="89">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="93">
         <v>0.7</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="97">
         <v>0.5</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="62">
         <v>0.3</v>
       </c>
-      <c r="K5" s="98">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
-        <v>0</v>
-      </c>
-      <c r="N5" s="108">
+      <c r="K5" s="89">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0</v>
+      </c>
+      <c r="N5" s="99">
         <v>0.8</v>
       </c>
-      <c r="O5" s="112">
-        <v>0.6</v>
-      </c>
-      <c r="P5" s="76">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" s="98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>0</v>
-      </c>
-      <c r="B6" s="81">
-        <v>0</v>
-      </c>
-      <c r="C6" s="66">
-        <v>0</v>
-      </c>
-      <c r="D6" s="99">
-        <v>0</v>
-      </c>
-      <c r="E6" s="100">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="81">
-        <v>0</v>
-      </c>
-      <c r="I6" s="66">
-        <v>0</v>
-      </c>
-      <c r="J6" s="99">
-        <v>0</v>
-      </c>
-      <c r="K6" s="100">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="81">
-        <v>0</v>
-      </c>
-      <c r="O6" s="66">
-        <v>0</v>
-      </c>
-      <c r="P6" s="99">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="O5" s="103">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>0</v>
+      </c>
+      <c r="B6" s="72">
+        <v>0</v>
+      </c>
+      <c r="C6" s="58">
+        <v>0</v>
+      </c>
+      <c r="D6" s="90">
+        <v>0</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="72">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58">
+        <v>0</v>
+      </c>
+      <c r="J6" s="90">
+        <v>0</v>
+      </c>
+      <c r="K6" s="91">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="72">
+        <v>0</v>
+      </c>
+      <c r="O6" s="58">
+        <v>0</v>
+      </c>
+      <c r="P6" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
         <v>0.1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <v>0.2</v>
       </c>
-      <c r="D10" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="D10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="27">
         <v>0.9</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="33">
         <v>0.8</v>
       </c>
-      <c r="O10" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="P10" s="42">
+      <c r="O10" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="35">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="16">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.8</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="21">
         <v>0.7</v>
       </c>
-      <c r="H11" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="6">
         <v>0.7</v>
       </c>
-      <c r="J11" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="N11" s="43">
+      <c r="J11" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="N11" s="36">
         <v>0.3</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="12">
         <v>0.1</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="37">
         <v>0.6</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -2647,208 +2679,209 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22">
         <v>0.5</v>
       </c>
-      <c r="C12" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="C12" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="24">
         <v>0.3</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <v>0.7</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="31">
         <v>0.5</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="32">
         <v>0.3</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="38">
         <v>0.8</v>
       </c>
-      <c r="O12" s="46">
-        <v>0.6</v>
-      </c>
-      <c r="P12" s="47">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="O12" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="R16" s="56" t="s">
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="R16" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
-        <f>B10*C4</f>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="17">
+        <f t="shared" ref="B17:D19" si="0">B10*C4</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="C17" s="25">
-        <f>C10*D4</f>
+      <c r="C17" s="18">
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="D17" s="26">
-        <f>D10*E4</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="32">
-        <f>H10*I4</f>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" ref="H17:J19" si="1">H10*I4</f>
         <v>0.42</v>
       </c>
-      <c r="I17" s="33">
-        <f>I10*J4</f>
+      <c r="I17" s="26">
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="J17" s="34">
-        <f>J10*K4</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="40">
-        <f>N10*O4</f>
+      <c r="J17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <f t="shared" ref="N17:P19" si="2">N10*O4</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="O17" s="41">
-        <f>O10*P4</f>
+      <c r="O17" s="34">
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="P17" s="42">
-        <f>P10*Q4</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="48">
+      <c r="P17" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="41">
         <v>2.64</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="42">
         <v>4.67</v>
       </c>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
-        <f>B11*C5</f>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="C18" s="25">
-        <f>C11*D5</f>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="D18" s="26">
-        <f>D11*E5</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="80" t="s">
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="35">
-        <f>H11*I5</f>
+      <c r="H18" s="28">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I18" s="9">
-        <f>I11*J5</f>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
         <v>0.21</v>
       </c>
-      <c r="J18" s="36">
-        <f>J11*K5</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="80" t="s">
+      <c r="J18" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="43">
-        <f>N11*O5</f>
+      <c r="N18" s="36">
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="O18" s="18">
-        <f>O11*P5</f>
+      <c r="O18" s="12">
+        <f t="shared" si="2"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="P18" s="44">
-        <f>P11*Q5</f>
+      <c r="P18" s="37">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="52"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
-        <f>B12*C6</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <f>C12*D6</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="26">
-        <f>D12*E6</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="37">
-        <f>H12*I6</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
-        <f>I12*J6</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="39">
-        <f>J12*K6</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="45">
-        <f>N12*O6</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="46">
-        <f>O12*P6</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="47">
-        <f>P12*Q6</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="49">
+      <c r="R18" s="44"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="46"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="42">
         <f>$B$17+$C$17+$D$17+$B$18+$C$18+$D$18+$B$19+$C$19+$D$19+$H$17+$I$17+$J$17+$H$18+$I$18+$J$18+$H$19+$I$19+$J$19+$N$17+$O$17+$P$17+$N$18+$O$18+$P$18+$N$19+$O$19+$P$19+$R$11</f>
         <v>2.2400000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R16:T16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A9:P9"/>
     <mergeCell ref="A16:P16"/>
-    <mergeCell ref="R16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>